--- a/results_sheet.xlsx
+++ b/results_sheet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -979,6 +979,510 @@
         <v>0.965578243331245</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>18_model_name_xception_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9548837209302325</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.9548835867700569</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9550478795856154</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.9548789210443754</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9548837209302325</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.9550477924954048</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.9548789446171974</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>19_model_name_mobilenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9592248062015504</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.9592243108337357</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.959303541921772</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.9592229368524172</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9592248062015504</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.9593031056002015</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.9592229663865577</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>20_model_name_densenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9752713178294574</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.9752699266163871</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9753609401993449</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.9752700817171842</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9752713178294574</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.9753596476684022</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.975270131120167</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>21_model_name_xception_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9624031007751939</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9624020664840905</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.962543954238803</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.9624002885310741</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9624031007751939</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.9625430296888485</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.962400343716222</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>22_model_name_mobilenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9546511627906977</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.9546496432869596</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9550564032959752</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9546418224861701</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9546511627906977</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.9550551078902536</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.9546419375653261</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>23_model_name_densenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9741860465116279</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.9741848963210398</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9742608894492394</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.9741849973176171</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9741860465116279</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.9742598186110568</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.9741850376452088</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>24_model_name_xception_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9620155038759689</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.9620121859737111</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9621604364861944</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.9620122075735791</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9620155038759689</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.9621573760973405</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.9620123373522473</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>25_model_name_mobilenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.9589922480620154</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.9589913920455622</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9591317920184952</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.9589888440452953</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9589922480620154</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.9591310251400917</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.9589888886277815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>26_model_name_densenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_noncropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.9733321218855817</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9733826732104823</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.9733325888105832</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9733333333333334</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.9733815419197761</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.9733326290143719</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>27_model_name_xception_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.9555813953488373</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.955580116401747</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9557483045087368</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.9555767472690219</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9555813953488373</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.9557472114925121</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.9555768416221035</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>28_model_name_mobilenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.7504651162790699</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.7505210366625708</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.7780221106341776</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.7361715198497336</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.7504651162790699</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.7780461303266015</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.7361508245952987</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>29_model_name_densenet_task_detection_pretrained_True_trainable_core_True_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0.9711627906976744</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.9711647032255103</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9712113241936706</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.9711621394091642</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9711627906976744</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.9712131470464079</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.9711620943606116</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>30_model_name_xception_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0.9518604651162791</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.9518603276952661</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9521479356238105</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.9518515250549398</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9518604651162791</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.9521478603873591</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.9518515559845347</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>32_model_name_densenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>0.9669767441860465</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9669755908277875</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9671067365235135</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.9669741207944018</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9669767441860465</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.9671056850626167</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.966974171780917</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>33_model_name_xception_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9508527131782945</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.9508507137724285</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.951316671722038</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.9508372819060178</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9508527131782945</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.9513148899506907</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.950837391421412</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>34_model_name_mobilenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0.7058139534883721</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.7059006374522916</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.7692919747864175</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.6491071599373063</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.7058139534883721</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.7693375951458107</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.6490544527359798</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>35_model_name_densenet_task_detection_pretrained_False_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_32_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0.9646511627906976</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.9646535534504924</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9648797806783171</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.9646472469102567</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9646511627906976</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.9648820412868441</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.964647180412831</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>31_model_name_mobilenet_task_detection_pretrained_True_trainable_core_False_optimizer_sgd_epochs_300_lr_0.001_patience_5_batch_size_64_augmentation_prob_0.25_database_cropped_top_idx_1_loss_categorical_crossentropy</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0.7681395348837209</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.7681658817993606</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.7821126324309159</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.7655885511858568</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.7681395348837209</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.7821293850099127</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.7655830761883676</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
